--- a/ArticleManage/main_working_folder/output_folders/Data 151 High-performance activated carbon fiber/Data151_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 151 High-performance activated carbon fiber/Data151_all_graphs_excel.xlsx
@@ -5,11 +5,11 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 5 PAC0  0-1-0-800 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 5 PAC2  0-1-0-800 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 5 PAC4  0-1-0-800 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 5 PAC6  0-1-0-800 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 5 PAC8  0-1-0-800 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 5 PAC0  0&amp;1&amp;0&amp;800 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 5 PAC2  0&amp;1&amp;0&amp;800 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 5 PAC4  0&amp;1&amp;0&amp;800 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 5 PAC6  0&amp;1&amp;0&amp;800 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 5 PAC8  0&amp;1&amp;0&amp;800 " sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -172,12 +172,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC0  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 PAC0  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC0  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 PAC0  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -486,12 +486,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC2  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 PAC2  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC2  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 PAC2  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -800,12 +800,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC4  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 PAC4  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC4  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 PAC4  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1114,12 +1114,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC6  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 PAC6  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC6  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 PAC6  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1428,12 +1428,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC8  0-1-0-800 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 5 PAC8  0&amp;1&amp;0&amp;800 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 5 PAC8  0-1-0-800 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 5 PAC8  0&amp;1&amp;0&amp;800 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
